--- a/docs/StructureDefinition-patientlist.xlsx
+++ b/docs/StructureDefinition-patientlist.xlsx
@@ -2032,7 +2032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>91</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3720,7 +3720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>206</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4873,7 +4873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>250</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -4978,7 +4978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>250</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5083,7 +5083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>250</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-patientlist.xlsx
+++ b/docs/StructureDefinition-patientlist.xlsx
@@ -4993,7 +4993,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
@@ -5098,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-patientlist.xlsx
+++ b/docs/StructureDefinition-patientlist.xlsx
@@ -830,7 +830,7 @@
     <t>Group.member.entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://www.fhir.org/guides/argonaut/patient-list/StructureDefinition/argo-patientlist|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://www.fhir.org/guides/argonaut/patient-list/StructureDefinition/patientlist|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|PractitionerRole)
 </t>
   </si>
   <si>
